--- a/Week16. Last_week/Resume16.xlsx
+++ b/Week16. Last_week/Resume16.xlsx
@@ -79,9 +79,6 @@
     <t>Доработать спецификацию требований для третьего витка</t>
   </si>
   <si>
-    <t>Составить структура веб-интерфейса для третьего витка</t>
-  </si>
-  <si>
     <t>Составить диаграмму вариантов использования с описанием для третьего витка</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Тестирование системы</t>
+  </si>
+  <si>
+    <t>Составить структуру веб-интерфейса для третьего витка</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -555,10 +555,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -597,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
